--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>productivité</t>
+  </si>
+  <si>
+    <t>compensation</t>
+  </si>
+  <si>
+    <t>MNA.Q.N.IE.W2.S1.S1._Z.COM_PS._Z._T._Z.IX.V.N</t>
   </si>
 </sst>
 </file>
@@ -300,12 +306,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -384,12 +396,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -785,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M34"/>
+  <dimension ref="A2:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -813,6 +826,7 @@
       <c r="E2" t="s">
         <v>65</v>
       </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2"/>
@@ -828,6 +842,7 @@
       <c r="E3" t="s">
         <v>65</v>
       </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
@@ -843,6 +858,7 @@
       <c r="E4" t="s">
         <v>65</v>
       </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2"/>
@@ -858,6 +874,7 @@
       <c r="E5" t="s">
         <v>65</v>
       </c>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2"/>
@@ -873,6 +890,7 @@
       <c r="E6" t="s">
         <v>65</v>
       </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2"/>
@@ -888,6 +906,7 @@
       <c r="E7" t="s">
         <v>65</v>
       </c>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2"/>
@@ -1206,7 +1225,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1218,6 +1237,18 @@
       </c>
       <c r="D34" t="s">
         <v>70</v>
+      </c>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -267,7 +267,19 @@
     <t>compensation</t>
   </si>
   <si>
-    <t>MNA.Q.N.IE.W2.S1.S1._Z.COM_PS._Z._T._Z.IX.V.N</t>
+    <t>MNA.Q.N.COUNTRY.W2.S1.S1._Z.COM_PS._Z._T._Z.IX.V.N</t>
+  </si>
+  <si>
+    <t>Neither seasonally nor working day adjusted</t>
+  </si>
+  <si>
+    <t>MNA.Q.N.COUNTRY.W2.S1.S1.B.B1GQ._Z._Z._Z.XDC.LR.N</t>
+  </si>
+  <si>
+    <t>MNA.Q.N.COUNTRY.W0.S1.S1._Z.LPR_PS._Z._T._Z.IX.LR.N</t>
+  </si>
+  <si>
+    <t>Average of observations through period</t>
   </si>
 </sst>
 </file>
@@ -801,7 +813,7 @@
   <dimension ref="A2:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -953,6 +965,15 @@
       <c r="B12" t="s">
         <v>5</v>
       </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
       <c r="L12" t="s">
         <v>32</v>
       </c>
@@ -982,6 +1003,15 @@
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
       </c>
       <c r="L14" t="s">
         <v>29</v>

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>Average of observations through period</t>
+  </si>
+  <si>
+    <t>DJES</t>
+  </si>
+  <si>
+    <t>FM.Q.U2.EUR.DS.EI.DJES50I.HSTA</t>
+  </si>
+  <si>
+    <t>Interest Rates, Money Market Rate</t>
   </si>
 </sst>
 </file>
@@ -341,8 +350,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -416,7 +429,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -449,6 +462,8 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -481,6 +496,8 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -810,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M35"/>
+  <dimension ref="A2:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1086,6 +1103,12 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
       <c r="L19" t="s">
         <v>22</v>
       </c>
@@ -1279,6 +1302,17 @@
       </c>
       <c r="D35" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -289,13 +289,16 @@
   </si>
   <si>
     <t>Interest Rates, Money Market Rate</t>
+  </si>
+  <si>
+    <t>quarterly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,6 +329,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -421,13 +431,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -829,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1000,7 +1011,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="2"/>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -1146,7 +1157,7 @@
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
@@ -1250,7 +1261,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="2"/>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
@@ -1260,12 +1271,12 @@
         <v>76</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2"/>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C32" t="s">

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -841,7 +841,7 @@
   <dimension ref="A2:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B31:B32"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -854,7 +854,7 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -870,7 +870,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2"/>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
@@ -886,7 +886,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C4" t="s">
@@ -902,7 +902,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2"/>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="s">
@@ -918,7 +918,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2"/>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
@@ -934,7 +934,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2"/>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
@@ -1208,7 +1208,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2"/>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C26" t="s">
@@ -1293,7 +1293,7 @@
       <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C34" t="s">

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -292,13 +292,22 @@
   </si>
   <si>
     <t>quarterly</t>
+  </si>
+  <si>
+    <t>ECB qua</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>FMI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,6 +345,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -431,7 +458,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -439,6 +466,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -838,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -850,6 +880,11 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13">
+      <c r="H1" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>3</v>
@@ -867,6 +902,9 @@
         <v>65</v>
       </c>
       <c r="F2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2"/>
@@ -883,6 +921,9 @@
         <v>65</v>
       </c>
       <c r="F3" s="3"/>
+      <c r="H3" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2"/>
@@ -953,7 +994,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="2"/>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I9" t="s">
@@ -968,7 +1009,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="2"/>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
       <c r="L10" t="s">
@@ -990,7 +1031,7 @@
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
@@ -1029,7 +1070,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2"/>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C14" t="s">
@@ -1111,7 +1152,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2"/>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
@@ -1146,6 +1187,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
+      <c r="F22" s="5"/>
       <c r="L22" t="s">
         <v>25</v>
       </c>
@@ -1231,7 +1273,7 @@
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
@@ -1246,7 +1288,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="2"/>
-      <c r="B30" t="s">
+      <c r="B30" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
@@ -1305,7 +1347,7 @@
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C35" t="s">

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10720" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -207,9 +207,6 @@
     <t>Euro Area, Euro</t>
   </si>
   <si>
-    <t>Nominal Effective Exchange Rate, Consumer Price Index</t>
-  </si>
-  <si>
     <t>NEER</t>
   </si>
   <si>
@@ -301,13 +298,16 @@
   </si>
   <si>
     <t>FMI</t>
+  </si>
+  <si>
+    <t>EXR.Q.E1.EUR.ERC0.A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -363,6 +363,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -458,7 +464,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -469,6 +475,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -871,7 +878,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -882,7 +889,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="H1" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -893,17 +900,17 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -912,17 +919,17 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3"/>
       <c r="H3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -931,15 +938,18 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3"/>
+      <c r="H4" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2"/>
@@ -947,13 +957,13 @@
         <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -963,13 +973,13 @@
         <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -979,13 +989,13 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -1035,13 +1045,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
@@ -1059,7 +1069,7 @@
         <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
         <v>21</v>
@@ -1071,16 +1081,16 @@
     <row r="14" spans="1:13">
       <c r="A14" s="2"/>
       <c r="B14" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
         <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>86</v>
       </c>
       <c r="L14" t="s">
         <v>29</v>
@@ -1110,17 +1120,17 @@
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
         <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>73</v>
       </c>
       <c r="L17" t="s">
         <v>30</v>
@@ -1131,17 +1141,17 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="2"/>
-      <c r="B18" t="s">
+      <c r="B18" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L18" t="s">
         <v>26</v>
@@ -1159,7 +1169,7 @@
         <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
@@ -1206,10 +1216,10 @@
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L23" t="s">
         <v>33</v>
@@ -1227,40 +1237,40 @@
         <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2"/>
-      <c r="B25" t="s">
-        <v>63</v>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
         <v>68</v>
       </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1283,7 +1293,7 @@
         <v>61</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1298,7 +1308,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1310,62 +1320,62 @@
         <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="2"/>
       <c r="B32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
         <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
         <v>81</v>
       </c>
-      <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
         <v>87</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="9220" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>EXR.Q.E1.EUR.ERC0.A</t>
+  </si>
+  <si>
+    <t>IL MANQUE GDP WORLD</t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1294,6 +1297,9 @@
       </c>
       <c r="E29" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="K29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:13">

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,6 +372,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -467,18 +473,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -881,7 +888,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -891,15 +898,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -911,14 +918,14 @@
       <c r="E2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C3" t="s">
@@ -930,14 +937,14 @@
       <c r="E3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="2"/>
+      <c r="H3" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C4" t="s">
@@ -949,14 +956,14 @@
       <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="2"/>
+      <c r="H4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="s">
@@ -968,11 +975,11 @@
       <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C6" t="s">
@@ -984,11 +991,11 @@
       <c r="E6" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
@@ -1000,14 +1007,14 @@
       <c r="E7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2"/>
+      <c r="A8" s="8"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
       <c r="I9" t="s">
@@ -1021,8 +1028,8 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="L10" t="s">
@@ -1041,10 +1048,10 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
@@ -1064,8 +1071,8 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -1082,8 +1089,8 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="8"/>
+      <c r="B14" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C14" t="s">
@@ -1103,7 +1110,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="2"/>
+      <c r="A15" s="8"/>
       <c r="L15" t="s">
         <v>19</v>
       </c>
@@ -1120,10 +1127,10 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
@@ -1143,8 +1150,8 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="2"/>
-      <c r="B18" s="8" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
@@ -1164,8 +1171,8 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
@@ -1182,7 +1189,7 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="2"/>
+      <c r="A20" s="8"/>
       <c r="L20" t="s">
         <v>24</v>
       </c>
@@ -1191,7 +1198,7 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="2"/>
+      <c r="A21" s="8"/>
       <c r="L21" t="s">
         <v>28</v>
       </c>
@@ -1200,7 +1207,7 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="F22" s="5"/>
+      <c r="F22" s="4"/>
       <c r="L22" t="s">
         <v>25</v>
       </c>
@@ -1209,10 +1216,10 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
@@ -1232,8 +1239,8 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="2"/>
-      <c r="B24" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
@@ -1247,8 +1254,8 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C25" t="s">
@@ -1262,8 +1269,8 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C26" t="s">
@@ -1277,16 +1284,16 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="2"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
@@ -1303,8 +1310,8 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="2"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
@@ -1318,8 +1325,8 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
@@ -1333,8 +1340,8 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C32" t="s">
@@ -1351,7 +1358,7 @@
       <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C34" t="s">
@@ -1360,10 +1367,10 @@
       <c r="D34" t="s">
         <v>69</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C35" t="s">
@@ -1374,7 +1381,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C36" t="s">

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t xml:space="preserve">HICP </t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>taux directeurs</t>
-  </si>
-  <si>
-    <t>Pays :</t>
   </si>
   <si>
     <t>France</t>
@@ -402,8 +399,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -487,7 +496,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -522,6 +531,12 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -556,6 +571,12 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -885,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -897,12 +918,12 @@
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="H1" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    <row r="1" spans="1:17">
+      <c r="N1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -910,144 +931,195 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="H2" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="H3" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="H4" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="8"/>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="8"/>
       <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="8"/>
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="P10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -1055,78 +1127,87 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>81</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="8"/>
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>77</v>
+      </c>
+      <c r="I13">
+        <v>15</v>
+      </c>
+      <c r="P13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="8"/>
       <c r="B14" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
         <v>84</v>
       </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="P14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="8"/>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
@@ -1134,88 +1215,73 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="P17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="8"/>
       <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="P18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="8"/>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>87</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="8"/>
-      <c r="L20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="8"/>
-      <c r="L21" t="s">
-        <v>28</v>
-      </c>
-      <c r="M21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:17">
       <c r="F22" s="4"/>
-      <c r="L22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
         <v>11</v>
       </c>
@@ -1223,73 +1289,82 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L23" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>63</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>63</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="8"/>
       <c r="B25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>63</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="8"/>
       <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
         <v>14</v>
       </c>
@@ -1297,98 +1372,116 @@
         <v>15</v>
       </c>
       <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
         <v>60</v>
       </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>63</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="8"/>
       <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" t="s">
-        <v>61</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>63</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="8"/>
       <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>88</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="8"/>
       <c r="B32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="C32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" t="s">
-        <v>77</v>
-      </c>
       <c r="E32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" t="s">
         <v>66</v>
       </c>
-      <c r="C34" t="s">
-        <v>67</v>
-      </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
         <v>80</v>
       </c>
-      <c r="C35" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
         <v>86</v>
       </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
+      <c r="I36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -307,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,12 +347,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="6"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -376,18 +370,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -482,10 +470,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -494,7 +481,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -906,28 +895,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="5" max="5" width="98" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="N1" s="5" t="s">
+    <row r="1" spans="1:10">
+      <c r="G1" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -939,17 +929,13 @@
       <c r="E2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="I2">
-        <v>15</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="8"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C3" t="s">
@@ -961,17 +947,13 @@
       <c r="E3" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="8"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C4" t="s">
@@ -983,23 +965,19 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C5" t="s">
@@ -1011,20 +989,16 @@
       <c r="E5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="J5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="8"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="7"/>
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C6" t="s">
@@ -1036,20 +1010,16 @@
       <c r="E6" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="J6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="8"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
@@ -1061,69 +1031,59 @@
       <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="I7">
-        <v>15</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="I7" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="J7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="8"/>
-      <c r="P8" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="7"/>
+      <c r="I8" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="J8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>14</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="I9" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="J9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I10">
-        <v>15</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="J10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="P11" t="s">
+    <row r="11" spans="1:10">
+      <c r="I11" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="J11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
@@ -1135,19 +1095,16 @@
       <c r="E12" t="s">
         <v>81</v>
       </c>
-      <c r="I12">
-        <v>15</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="I12" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="J12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -1156,19 +1113,16 @@
       <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="I13">
-        <v>15</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="I13" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="J13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C14" t="s">
@@ -1180,38 +1134,35 @@
       <c r="E14" t="s">
         <v>84</v>
       </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="J14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="8"/>
-      <c r="P15" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="7"/>
+      <c r="I15" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="J15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="P16" t="s">
+    <row r="16" spans="1:10">
+      <c r="I16" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="J16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:10" ht="60">
+      <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
@@ -1220,22 +1171,19 @@
       <c r="D17" t="s">
         <v>63</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I17">
-        <v>15</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="I17" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="J17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="1:10" ht="60">
+      <c r="A18" s="7"/>
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
@@ -1244,22 +1192,19 @@
       <c r="D18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="I18" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="J18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
@@ -1268,24 +1213,18 @@
       <c r="D19" t="s">
         <v>87</v>
       </c>
-      <c r="I19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="8"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="8" t="s">
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
@@ -1297,16 +1236,13 @@
       <c r="E23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="I23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:10">
+      <c r="A24" s="7"/>
+      <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="s">
@@ -1318,13 +1254,10 @@
       <c r="E24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5" t="s">
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C25" t="s">
@@ -1336,13 +1269,10 @@
       <c r="E25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="8"/>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C26" t="s">
@@ -1354,21 +1284,18 @@
       <c r="E26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="8"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C29" t="s">
@@ -1380,13 +1307,10 @@
       <c r="E29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="8"/>
-      <c r="B30" s="6" t="s">
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7"/>
+      <c r="B30" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
@@ -1398,13 +1322,10 @@
       <c r="E30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3" t="s">
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="7"/>
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C31" t="s">
@@ -1416,13 +1337,10 @@
       <c r="E31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3" t="s">
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7"/>
+      <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C32" t="s">
@@ -1434,15 +1352,12 @@
       <c r="E32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C34" t="s">
@@ -1451,13 +1366,9 @@
       <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="I34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="5" t="s">
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C35" t="s">
@@ -1466,12 +1377,9 @@
       <c r="D35" t="s">
         <v>80</v>
       </c>
-      <c r="I35">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="B36" s="5" t="s">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C36" t="s">
@@ -1479,9 +1387,6 @@
       </c>
       <c r="D36" t="s">
         <v>86</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -898,7 +898,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1267,7 +1267,7 @@
         <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:10">

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -27,9 +27,6 @@
     <t>PPI</t>
   </si>
   <si>
-    <t>déflateur du PIB</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>IL MANQUE GDP WORLD</t>
+  </si>
+  <si>
+    <t>gdp deflator</t>
   </si>
 </sst>
 </file>
@@ -898,153 +898,155 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="98" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="G1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="7"/>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1053,165 +1055,165 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="7"/>
       <c r="B10" s="4" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7"/>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7"/>
       <c r="B14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
         <v>83</v>
       </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7"/>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="I16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="60">
       <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="60">
       <c r="A18" s="7"/>
       <c r="B18" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="7"/>
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1222,171 +1224,171 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7"/>
       <c r="B24" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="7"/>
       <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="7"/>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
         <v>59</v>
       </c>
-      <c r="D29" t="s">
-        <v>60</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="7"/>
       <c r="B30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
         <v>59</v>
       </c>
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7"/>
       <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>76</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
         <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -898,7 +898,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>ECB</t>
   </si>
   <si>
-    <t>EXR.M.USD.EUR.SP00.A</t>
-  </si>
-  <si>
     <t>STS.M.COUNTRY.S.UNEH.RTT000.4.000</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>gdp deflator</t>
+  </si>
+  <si>
+    <t>EXR.Q.USD.EUR.SP00.A</t>
   </si>
 </sst>
 </file>
@@ -479,10 +479,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="81">
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -912,11 +912,11 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="G1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -932,11 +932,11 @@
         <v>62</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
@@ -950,11 +950,11 @@
         <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
@@ -968,7 +968,7 @@
         <v>62</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
@@ -978,7 +978,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
@@ -999,7 +999,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1020,7 +1020,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
@@ -1041,7 +1041,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="I8" t="s">
         <v>19</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1062,9 +1062,9 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -1082,7 +1082,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1092,10 +1092,10 @@
         <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
         <v>28</v>
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
@@ -1123,18 +1123,18 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
       </c>
       <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
         <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
       </c>
       <c r="I14" t="s">
         <v>20</v>
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="I15" t="s">
         <v>22</v>
       </c>
@@ -1161,20 +1161,20 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="60">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>70</v>
+      <c r="E17" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="I17" t="s">
         <v>23</v>
@@ -1184,18 +1184,18 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="60">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>71</v>
+      <c r="E18" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="I18" t="s">
         <v>31</v>
@@ -1205,7 +1205,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1213,17 +1213,17 @@
         <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1233,17 +1233,17 @@
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
@@ -1251,14 +1251,14 @@
         <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="3" t="s">
         <v>60</v>
       </c>
@@ -1266,35 +1266,35 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="7"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1311,7 +1311,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="4" t="s">
         <v>15</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="7"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1334,22 +1334,22 @@
         <v>58</v>
       </c>
       <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="8"/>
+      <c r="B32" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="7"/>
-      <c r="B32" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C32" t="s">
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>62</v>
@@ -1366,29 +1366,29 @@
         <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="B36" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" t="s">
         <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -897,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/Quarterly/datarecap.xlsx
+++ b/data/Quarterly/datarecap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1400" yWindow="360" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -897,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
